--- a/biology/Botanique/Dickson_Nurseries/Dickson_Nurseries.xlsx
+++ b/biology/Botanique/Dickson_Nurseries/Dickson_Nurseries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison Dickson Nurseries est une pépinière de roses familiale à l'origine de nombreux cultivars de rosier. Elle se trouve en Irlande du Nord à Newtownards (County Down)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison Dickson Nurseries est une pépinière de roses familiale à l'origine de nombreux cultivars de rosier. Elle se trouve en Irlande du Nord à Newtownards (County Down).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>La compagnie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison a été fondée en 1836 par Alexander Dickson (1801-1880). Ses fils Hugh (vers 1831-1904) et George Ier (1832-1914) se sont également voués à l'obtention de roses. La maison prend au début le nom d'« Alexander Dickson and Sons ». Une maison séparée, « Royal Nurseries », est fondée par Hugh en 1869. Avec l'aide des fils de George, Alexander II (1857-1949) et George II, ils commencent à élever des roses à la fin des années 1870. La maison-mère change son nom en « Dicksons of Hawlmark », puis devient « Dickson Nurseries » quand elle déménage de Hawlmark à Milecross Road, Newtownards, en 1969.
 </t>
@@ -542,13 +556,15 @@
           <t>Obtenteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dickson se font connaître à l'exposition de la National Rose Society de 1886 à Londres en montrant deux hybrides perpétuels[3] et un hybride de thé ('Earl of Dufferin', 'Lady Helen Stewart' et 'Ethel Brownlow') qui retiennent l'attention des connaisseurs. Plus tard, ils donnent naissance à des cultivars fameux comme celui de 'George Dickson' de couleur rose carmin, l'hybride de thé 'Mrs W. J. Grant' (1892) de couleur rose impérial, ou l'hybride perpétuel de couleur rouge cerise, 'Tom Wood' (1896)[4].
-Alexander II Dickson travaille pour la maison familiale de 1872 à 1930, devenant l'obtenteur le plus prolifique de la maison (242 roses). L'on peut se souvenir de ses séries irlandaises d'hybrides de thé à fleur solitaire, conçues entre 1900 et 1914 (par ex. 'Irish Elegance' en 1905); de 'George Dickson' (1912); de 'Kitchener of Khartoum' et de 'Kootenay' (1917); de 'Kathleen Harrop' (1919); et de 'Dame Edith Helen'[5].
-Alexander III (1893-15 octobre 1975) succède à son père Alexandre II et conçoit 57 succès dont 'Sir Winston Churchill' (1955), 'Red Devil' (1965) et 'Nana Mouskouri' (1975), bien que sa carrière ait été freinée par la Seconde Guerre mondiale[6].
-À partir de 1957, c'est Alexander Patrick (1926-2012, appelé Patrick) qui prend les rênes avec l'obtention de 156 roses, dont 'Sea Pearl' (1964), 'Grandpa Dickson' (1966), 'Redgold' (1967) et la célèbre 'Elina' (1983)[7], rose favorite du monde en 2006.
-Colin Dickson (né en 1956), rosiériste de la sixième génération, est désormais le sélectionneur principal de la maison, pour laquelle il travaille depuis 1977. Parmi les cultivars récents, l'on peut citer 'Beautiful Britain' (1983), 'Freedom' (1984), 'Sweet Magic' (1996), 'Irish Eyes' (2000) et 'Whisper' (2002)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dickson se font connaître à l'exposition de la National Rose Society de 1886 à Londres en montrant deux hybrides perpétuels et un hybride de thé ('Earl of Dufferin', 'Lady Helen Stewart' et 'Ethel Brownlow') qui retiennent l'attention des connaisseurs. Plus tard, ils donnent naissance à des cultivars fameux comme celui de 'George Dickson' de couleur rose carmin, l'hybride de thé 'Mrs W. J. Grant' (1892) de couleur rose impérial, ou l'hybride perpétuel de couleur rouge cerise, 'Tom Wood' (1896).
+Alexander II Dickson travaille pour la maison familiale de 1872 à 1930, devenant l'obtenteur le plus prolifique de la maison (242 roses). L'on peut se souvenir de ses séries irlandaises d'hybrides de thé à fleur solitaire, conçues entre 1900 et 1914 (par ex. 'Irish Elegance' en 1905); de 'George Dickson' (1912); de 'Kitchener of Khartoum' et de 'Kootenay' (1917); de 'Kathleen Harrop' (1919); et de 'Dame Edith Helen'.
+Alexander III (1893-15 octobre 1975) succède à son père Alexandre II et conçoit 57 succès dont 'Sir Winston Churchill' (1955), 'Red Devil' (1965) et 'Nana Mouskouri' (1975), bien que sa carrière ait été freinée par la Seconde Guerre mondiale.
+À partir de 1957, c'est Alexander Patrick (1926-2012, appelé Patrick) qui prend les rênes avec l'obtention de 156 roses, dont 'Sea Pearl' (1964), 'Grandpa Dickson' (1966), 'Redgold' (1967) et la célèbre 'Elina' (1983), rose favorite du monde en 2006.
+Colin Dickson (né en 1956), rosiériste de la sixième génération, est désormais le sélectionneur principal de la maison, pour laquelle il travaille depuis 1977. Parmi les cultivars récents, l'on peut citer 'Beautiful Britain' (1983), 'Freedom' (1984), 'Sweet Magic' (1996), 'Irish Eyes' (2000) et 'Whisper' (2002).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand nombre de cultivars de rosiers créés par la famille Dickson sont connus dans le monde entier et beaucoup ont reçu des prix. L'on peut distinguer:
 GM - Gold Medal; PIT - President's International Trophy (Grande-Bretagne)
